--- a/medicine/Mort/Cimetière_de_Créteil/Cimetière_de_Créteil.xlsx
+++ b/medicine/Mort/Cimetière_de_Créteil/Cimetière_de_Créteil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Cr%C3%A9teil</t>
+          <t>Cimetière_de_Créteil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Créteil est le cimetière communal de la ville de Créteil[1] dans la grande banlieue parisienne du Val-de-Marne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Créteil est le cimetière communal de la ville de Créteil dans la grande banlieue parisienne du Val-de-Marne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Cr%C3%A9teil</t>
+          <t>Cimetière_de_Créteil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ouvert en 1822, il comprend un carré militaire avec un grand monument aux morts du sculpteur Alexandre Descatoire érigé en 1921, et l'ancienne porte de la prison du Cherche-Midi[2], placée ici en 1982[3]. Il dispose de 6 191 emplacements sur 3,58 hectares. De nombreuses tombes anciennes y sont encore préservées. Il a été agrandi en 1994 et 1997 et est organisé selon un plan orthogonal.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ouvert en 1822, il comprend un carré militaire avec un grand monument aux morts du sculpteur Alexandre Descatoire érigé en 1921, et l'ancienne porte de la prison du Cherche-Midi, placée ici en 1982. Il dispose de 6 191 emplacements sur 3,58 hectares. De nombreuses tombes anciennes y sont encore préservées. Il a été agrandi en 1994 et 1997 et est organisé selon un plan orthogonal.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Cr%C3%A9teil</t>
+          <t>Cimetière_de_Créteil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Général Bailly de Monthion (1776-1850), pair de France (chapelle funéraire)
 Général Billotte (1906-1992), Compagnon de la Libération, haut-commissaire en Algérie, ministre, député, maire de Créteil
@@ -551,7 +567,7 @@
 Duchesse de La Force, née Georgina Harriet Smythe (-1867), ancienne maîtresse de Georges IV d'Angleterre, tuée par son cocher
 Gabriel Gobin (1903-1998), acteur
 Louis Guillaume (1907-1971), écrivain et poète
-Paul Parfonry (1857-1920), peintre (mausolée sculpté)[2]
+Paul Parfonry (1857-1920), peintre (mausolée sculpté)
 			Mémorial du Cherche Midi.
 			Croix de cimetière.
 			Tombe de la famille Parfonry.
